--- a/results_of_test/test_3/Fidelity_result_intra_states_q_2_engl_False.xlsx
+++ b/results_of_test/test_3/Fidelity_result_intra_states_q_2_engl_False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>States</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>ket_2_qubits_2</t>
+  </si>
+  <si>
+    <t>ket_2_qubits_3</t>
+  </si>
+  <si>
+    <t>ket_2_qubits_4</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +429,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.000000009610856</v>
+        <v>0.9999999789653234</v>
       </c>
       <c r="C2">
-        <v>1.000000007574527</v>
+        <v>0.9999999987673976</v>
       </c>
       <c r="D2">
-        <v>8.472358482592417E-09</v>
+        <v>1.268295069710344E-07</v>
       </c>
       <c r="E2">
-        <v>8.969894422953032E-09</v>
+        <v>7.299941185594311E-08</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,16 +446,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.000000011430496</v>
+        <v>0.9999999599683116</v>
       </c>
       <c r="C3">
-        <v>1.00000001223247</v>
+        <v>0.9999999539879502</v>
       </c>
       <c r="D3">
-        <v>2.081249966234012E-08</v>
+        <v>1.357277011263459E-07</v>
       </c>
       <c r="E3">
-        <v>1.054232659716987E-08</v>
+        <v>1.571412631157743E-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,16 +463,50 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.000000009577236</v>
+        <v>0.9999999262839088</v>
       </c>
       <c r="C4">
-        <v>1.000000009274872</v>
+        <v>0.9999999231061314</v>
       </c>
       <c r="D4">
-        <v>1.942580192736161E-08</v>
+        <v>1.533092159178333E-07</v>
       </c>
       <c r="E4">
-        <v>1.074912394960865E-08</v>
+        <v>1.719515114879768E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.9999998975449594</v>
+      </c>
+      <c r="C5">
+        <v>0.9999998854235197</v>
+      </c>
+      <c r="D5">
+        <v>1.765799409425696E-07</v>
+      </c>
+      <c r="E5">
+        <v>2.135430453229128E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.9999998760317492</v>
+      </c>
+      <c r="C6">
+        <v>0.9999998572966221</v>
+      </c>
+      <c r="D6">
+        <v>2.064128831759064E-07</v>
+      </c>
+      <c r="E6">
+        <v>2.265254606189223E-07</v>
       </c>
     </row>
   </sheetData>
